--- a/src/test/java/uk/ac/ebi/intact/psi/mi/xmlmaker/testSamples/test_sample.xlsx
+++ b/src/test/java/uk/ac/ebi/intact/psi/mi/xmlmaker/testSamples/test_sample.xlsx
@@ -12,7 +12,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="142">
+  <si>
+    <t>Experimental Preparation</t>
+  </si>
+  <si>
+    <t>Experimental variable condition description</t>
+  </si>
+  <si>
+    <t>Experimental variable condition value</t>
+  </si>
+  <si>
+    <t>Experimental variable condition unit</t>
+  </si>
+  <si>
+    <t>Host organism</t>
+  </si>
   <si>
     <t>Interaction number</t>
   </si>
@@ -23,7 +38,7 @@
     <t>Interaction detection method</t>
   </si>
   <si>
-    <t>Interaction feature legend</t>
+    <t>Interaction figure legend</t>
   </si>
   <si>
     <t>Interaction parameter type</t>
@@ -44,12 +59,6 @@
     <t>Interaction parameter uncertainty</t>
   </si>
   <si>
-    <t>Host organism</t>
-  </si>
-  <si>
-    <t>Experimental Preparation</t>
-  </si>
-  <si>
     <t>Participant name</t>
   </si>
   <si>
@@ -83,12 +92,24 @@
     <t>Participant xref database</t>
   </si>
   <si>
+    <t>Participant biological role</t>
+  </si>
+  <si>
     <t>Feature short name_0</t>
   </si>
   <si>
     <t>Feature type_0</t>
   </si>
   <si>
+    <t>Feature role_0</t>
+  </si>
+  <si>
+    <t>Feature original sequence_0</t>
+  </si>
+  <si>
+    <t>Feature resulting sequence_0</t>
+  </si>
+  <si>
     <t>Feature start_0</t>
   </si>
   <si>
@@ -125,13 +146,10 @@
     <t>Feature parameter uncertainty_0</t>
   </si>
   <si>
-    <t>Feature original sequence_0</t>
-  </si>
-  <si>
-    <t>Feature resulting sequence_0</t>
-  </si>
-  <si>
-    <t>Feature role_0</t>
+    <t>Bait_0</t>
+  </si>
+  <si>
+    <t>Prey_0</t>
   </si>
   <si>
     <t>Feature short name_1</t>
@@ -140,6 +158,15 @@
     <t>Feature type_1</t>
   </si>
   <si>
+    <t>Feature role_1</t>
+  </si>
+  <si>
+    <t>Feature original sequence_1</t>
+  </si>
+  <si>
+    <t>Feature resulting sequence_1</t>
+  </si>
+  <si>
     <t>Feature start_1</t>
   </si>
   <si>
@@ -176,49 +203,46 @@
     <t>Feature parameter uncertainty_1</t>
   </si>
   <si>
-    <t>Feature original sequence_1</t>
-  </si>
-  <si>
-    <t>Feature resulting sequence_1</t>
-  </si>
-  <si>
-    <t>Feature role_1</t>
+    <t>Bait_1</t>
+  </si>
+  <si>
+    <t>Prey_1</t>
+  </si>
+  <si>
+    <t>amorph ; antimorph</t>
+  </si>
+  <si>
+    <t>variable param</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>Number of molecules</t>
+  </si>
+  <si>
+    <t>9606</t>
+  </si>
+  <si>
     <t>physical association</t>
   </si>
   <si>
     <t>2d-infrared spectrometry</t>
   </si>
   <si>
-    <t>figure legend 1</t>
+    <t>fig1</t>
   </si>
   <si>
     <t>Kd</t>
   </si>
   <si>
-    <t>3.70886832;</t>
-  </si>
-  <si>
-    <t>molar</t>
+    <t>3.70886832</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>9606</t>
-  </si>
-  <si>
-    <t>amorph ; antimorph</t>
+    <t/>
   </si>
   <si>
     <t>ACVR2A</t>
@@ -230,31 +254,52 @@
     <t>UniProtKB</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>559292</t>
   </si>
   <si>
+    <t>7227</t>
+  </si>
+  <si>
     <t>bait</t>
   </si>
   <si>
     <t>Identification by mass spectrometry</t>
   </si>
   <si>
-    <t>Bait feature 1</t>
-  </si>
-  <si>
-    <t>sufficient binding region;</t>
-  </si>
-  <si>
-    <t>513;</t>
-  </si>
-  <si>
-    <t>certain sequence position;</t>
-  </si>
-  <si>
-    <t>cell lysate</t>
+    <t>acceptor</t>
+  </si>
+  <si>
+    <t>bait feature 1</t>
+  </si>
+  <si>
+    <t>sufficient binding region</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>certain sequence position</t>
+  </si>
+  <si>
+    <t>xref1;xref2;</t>
+  </si>
+  <si>
+    <t>Cellosaurus;RNAcentral;</t>
+  </si>
+  <si>
+    <t>by homology;biological process;</t>
+  </si>
+  <si>
+    <t>cdna library</t>
   </si>
   <si>
     <t>DLG4</t>
@@ -263,49 +308,49 @@
     <t>P78352</t>
   </si>
   <si>
-    <t>7227</t>
+    <t>10090</t>
+  </si>
+  <si>
+    <t>3702</t>
   </si>
   <si>
     <t>prey</t>
   </si>
   <si>
-    <t>Prey feature 1</t>
-  </si>
-  <si>
-    <t>306;</t>
-  </si>
-  <si>
-    <t>403;</t>
-  </si>
-  <si>
-    <t>IPR001478;</t>
-  </si>
-  <si>
-    <t>interpro;</t>
-  </si>
-  <si>
-    <t>Prey feature 2</t>
+    <t>allosteric effector</t>
+  </si>
+  <si>
+    <t>prey feature 1</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>IPR001478</t>
+  </si>
+  <si>
+    <t>interpro</t>
+  </si>
+  <si>
+    <t>qual</t>
+  </si>
+  <si>
+    <t>prey feature 2</t>
   </si>
   <si>
     <t>125i radiolabel</t>
   </si>
   <si>
-    <t>n-term</t>
-  </si>
-  <si>
-    <t>n-terminal range</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>observed-ptm</t>
-  </si>
-  <si>
-    <t>4.04468081;</t>
+    <t>c-term</t>
+  </si>
+  <si>
+    <t>c-terminal range</t>
+  </si>
+  <si>
+    <t>4.04468081</t>
   </si>
   <si>
     <t>PTEN</t>
@@ -314,22 +359,25 @@
     <t>P60484</t>
   </si>
   <si>
+    <t>394</t>
+  </si>
+  <si>
     <t>SNTA1</t>
   </si>
   <si>
     <t>Q13424</t>
   </si>
   <si>
-    <t>84;</t>
-  </si>
-  <si>
-    <t>171;</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>171</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>3.87434398;</t>
+    <t>3.87434398</t>
   </si>
   <si>
     <t>RPS6KA1</t>
@@ -338,13 +386,16 @@
     <t>Q15418</t>
   </si>
   <si>
-    <t>735;</t>
+    <t>726</t>
+  </si>
+  <si>
+    <t>735</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>3.59644717;</t>
+    <t>3.59644717</t>
   </si>
   <si>
     <t>ASIC3</t>
@@ -353,13 +404,16 @@
     <t>Q9UHC3</t>
   </si>
   <si>
-    <t>531;</t>
+    <t>522</t>
+  </si>
+  <si>
+    <t>531</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4.17125286;</t>
+    <t>4.17125286</t>
   </si>
   <si>
     <t>NET1</t>
@@ -368,7 +422,10 @@
     <t>Q7Z628</t>
   </si>
   <si>
-    <t>596;</t>
+    <t>587</t>
+  </si>
+  <si>
+    <t>596</t>
   </si>
   <si>
     <t>SNTG2</t>
@@ -377,10 +434,10 @@
     <t>Q9NY99</t>
   </si>
   <si>
-    <t>70;</t>
-  </si>
-  <si>
-    <t>159;</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>159</t>
   </si>
 </sst>
 </file>
@@ -425,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BE11"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -603,1735 +660,1939 @@
       <c r="BE1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="R2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>78</v>
-      </c>
+      <c r="Y2"/>
+      <c r="Z2"/>
       <c r="AA2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="AD2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AF2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="AH2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AI2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AQ2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AV2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AW2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AY2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BE2" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
         <v>67</v>
       </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" t="s">
         <v>86</v>
       </c>
-      <c r="AA3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>88</v>
-      </c>
       <c r="AD3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="AH3" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AI3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ3" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AK3" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="AL3" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="AM3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AP3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AQ3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AR3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AS3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AT3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU3" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AV3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AW3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AY3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ3" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BA3" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BB3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="BC3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BD3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="BE3" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="S4"/>
       <c r="T4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" t="s">
         <v>75</v>
       </c>
-      <c r="U4" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>66</v>
-      </c>
       <c r="AF4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG4" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="AH4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AI4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="AL4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AQ4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AT4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AV4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AW4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AY4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BE4" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" t="s">
         <v>100</v>
       </c>
-      <c r="N5" t="s">
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5" t="s">
         <v>101</v>
       </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>102</v>
       </c>
-      <c r="AA5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>79</v>
-      </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="AH5" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="AI5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ5" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="AL5" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AP5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AQ5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AR5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AS5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AT5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU5" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AV5" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AW5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AY5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ5" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BA5" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BB5" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="BC5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BD5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="BE5" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="S6"/>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>108</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y6"/>
+      <c r="Z6"/>
       <c r="AA6" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="AD6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AF6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="AH6" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AI6" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="AL6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AM6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AQ6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AT6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AV6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AW6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AY6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BE6" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>105</v>
       </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" t="s">
-        <v>83</v>
-      </c>
-      <c r="S7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" t="s">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s">
-        <v>104</v>
-      </c>
-      <c r="V7" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>72</v>
-      </c>
       <c r="AK7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="AL7" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="AM7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AP7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AQ7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AR7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AS7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AT7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU7" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AV7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AW7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AY7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BB7" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="BC7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BD7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="BE7" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="S8"/>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>113</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
       <c r="AA8" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="AD8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="AH8" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AI8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK8" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AQ8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AT8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AV8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AW8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AY8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BE8" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="AW9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" t="s">
-        <v>83</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s">
-        <v>109</v>
-      </c>
-      <c r="V9" t="s">
-        <v>72</v>
-      </c>
-      <c r="W9" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>72</v>
-      </c>
       <c r="BA9" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="BC9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BD9" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="BE9" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="R10" t="s">
-        <v>73</v>
-      </c>
-      <c r="S10" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="S10"/>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="X10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>118</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="AD10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="AF10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG10" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="AH10" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="AI10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AK10" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AM10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AP10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AQ10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AS10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AT10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AV10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AW10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AY10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BA10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BC10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BE10" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
         <v>67</v>
       </c>
-      <c r="L11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" t="s">
-        <v>119</v>
-      </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W11" t="s">
         <v>83</v>
       </c>
-      <c r="S11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s">
-        <v>114</v>
-      </c>
-      <c r="V11" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11" t="s">
-        <v>72</v>
-      </c>
       <c r="X11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>121</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
       <c r="AA11" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AB11" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="AI11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="AJ11" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="AL11" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="AM11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AO11" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AP11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AQ11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AR11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AS11" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AT11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AU11" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AV11" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AW11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AX11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AY11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AZ11" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BA11" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="BB11" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="BC11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="BD11" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="BE11" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
